--- a/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ამბროლაური.xlsx
+++ b/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ამბროლაური.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\რაჭა-ლეჩხუმი ზემო სვანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\რაჭა-ლეჩხუმი ზემო სვანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -581,25 +581,25 @@
         <v>4290</v>
       </c>
       <c r="E4" s="8">
-        <v>3665</v>
+        <v>4182</v>
       </c>
       <c r="F4" s="9">
-        <v>3250</v>
+        <v>3652</v>
       </c>
       <c r="G4" s="9">
-        <v>3058</v>
+        <v>3446</v>
       </c>
       <c r="H4" s="9">
-        <v>3031</v>
+        <v>3424</v>
       </c>
       <c r="I4" s="9">
-        <v>2973</v>
+        <v>3358</v>
       </c>
       <c r="J4" s="9">
-        <v>3034</v>
+        <v>3434</v>
       </c>
       <c r="K4" s="9">
-        <v>3061</v>
+        <v>3471</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -617,25 +617,25 @@
         <v>2273</v>
       </c>
       <c r="E5" s="9">
-        <v>1805</v>
+        <v>1937</v>
       </c>
       <c r="F5" s="9">
-        <v>1860</v>
+        <v>1956</v>
       </c>
       <c r="G5" s="9">
-        <v>1726</v>
+        <v>1820</v>
       </c>
       <c r="H5" s="9">
-        <v>1868</v>
+        <v>1964</v>
       </c>
       <c r="I5" s="9">
-        <v>1620</v>
+        <v>1701</v>
       </c>
       <c r="J5" s="9">
-        <v>1935</v>
+        <v>2030</v>
       </c>
       <c r="K5" s="9">
-        <v>2000</v>
+        <v>2110</v>
       </c>
       <c r="L5" s="10"/>
     </row>
